--- a/箱庭跃迁规则书/新版规则半自动卡.xlsx
+++ b/箱庭跃迁规则书/新版规则半自动卡.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>H/5</t>
-  </si>
-  <si>
-    <t>A/2</t>
   </si>
   <si>
     <t>H/2</t>
@@ -331,7 +328,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -942,6 +939,18 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -978,6 +987,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1014,9 +1026,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,18 +1033,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1324,33 +1321,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="61" t="s">
-        <v>70</v>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="66" t="s">
+        <v>69</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>20</v>
@@ -1360,28 +1357,28 @@
         <v>28</v>
       </c>
       <c r="M2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="62"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="67"/>
       <c r="G3" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="15">
         <f>VLOOKUP(VLOOKUP($H$2,Sheet2!$B$4:$G$9,2,FALSE),$D$7:$E$9,2,FALSE)*10+20</f>
         <v>80</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="12"/>
@@ -1397,26 +1394,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="62"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="67"/>
       <c r="G4" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="21">
         <f>VLOOKUP(VLOOKUP($H$2,Sheet2!$B$4:$G$9,6,FALSE),$D$7:$E$9,2,FALSE)+7</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" s="22">
         <f>VLOOKUP(VLOOKUP($H$2,Sheet2!$B$4:$G$9,5,FALSE),$D$7:$E$9,2,FALSE)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="18">
@@ -1431,22 +1428,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="63"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="68"/>
       <c r="G5" s="23"/>
       <c r="H5" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="18">
@@ -1454,25 +1451,25 @@
       </c>
       <c r="M5" s="19" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Sheet2!C15,"A/5",Sheet1!$J$6),"A/2",$I$6),"ATK",$H$6)</f>
-        <v>3</v>
+        <v>6-1</v>
       </c>
       <c r="N5" s="19" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Sheet2!D15,"H/5",Sheet1!$J$7),"H/2",$I$7),"HLA",$H$7)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="58" t="s">
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
       <c r="G6" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="25">
-        <f>VLOOKUP(VLOOKUP($H$2,Sheet2!$B$4:$G$9,3,FALSE),$D$7:$E$9,2,FALSE)</f>
+        <f>MAX(VLOOKUP(VLOOKUP($H$2,Sheet2!$B$4:$G$9,3,FALSE),$D$7:$E$9,2,FALSE),1)</f>
         <v>6</v>
       </c>
       <c r="I6" s="26">
@@ -1493,10 +1490,10 @@
       </c>
       <c r="N6" s="19" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Sheet2!D16,"H/5",Sheet1!$J$7),"H/2",$I$7),"HLA",$H$7)</f>
-        <v>2-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="14" t="s">
         <v>5</v>
@@ -1513,11 +1510,11 @@
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="21">
-        <f>VLOOKUP(VLOOKUP($H$2,Sheet2!$B$4:$G$9,4,FALSE),$D$7:$E$9,2,FALSE)</f>
-        <v>2</v>
+        <f>MAX(VLOOKUP(VLOOKUP($H$2,Sheet2!$B$4:$G$9,4,FALSE),$D$7:$E$9,2,FALSE),1)</f>
+        <v>1</v>
       </c>
       <c r="I7" s="21">
         <f>MAX(ROUNDDOWN(H7/2,0),1)</f>
@@ -1533,39 +1530,39 @@
       </c>
       <c r="M7" s="19" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Sheet2!C17,"A/5",Sheet1!$J$6),"A/2",$I$6),"ATK",$H$6)</f>
-        <v>6-1</v>
+        <v>6</v>
       </c>
       <c r="N7" s="19" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Sheet2!D17,"H/5",Sheet1!$J$7),"H/2",$I$7),"HLA",$H$7)</f>
-        <v>2-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="22">
         <f>SUM(C7:C9)-E7-E9</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="42">
+      <c r="G8" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="46">
         <v>0</v>
       </c>
-      <c r="I8" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="42">
+      <c r="I8" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="46">
         <v>0</v>
       </c>
       <c r="K8" s="12"/>
@@ -1578,43 +1575,43 @@
       </c>
       <c r="N8" s="19" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Sheet2!D18,"H/5",Sheet1!$J$7),"H/2",$I$7),"HLA",$H$7)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="33">
         <f>MIN(C7:C9)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="43"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="12"/>
       <c r="L9" s="18">
         <v>8</v>
       </c>
       <c r="M9" s="19" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Sheet2!C19,"A/5",Sheet1!$J$6),"A/2",$I$6),"ATK",$H$6)</f>
-        <v>6+1</v>
+        <v>6</v>
       </c>
       <c r="N9" s="19" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Sheet2!D19,"H/5",Sheet1!$J$7),"H/2",$I$7),"HLA",$H$7)</f>
-        <v>2+1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1629,59 +1626,59 @@
       </c>
       <c r="N10" s="19" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Sheet2!D20,"H/5",Sheet1!$J$7),"H/2",$I$7),"HLA",$H$7)</f>
-        <v>2+1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1+1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
       <c r="L11" s="18">
         <v>10</v>
       </c>
       <c r="M11" s="19" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Sheet2!C21,"A/5",Sheet1!$J$6),"A/2",$I$6),"ATK",$H$6)</f>
-        <v>6+3</v>
+        <v>6+1</v>
       </c>
       <c r="N11" s="19" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Sheet2!D21,"H/5",Sheet1!$J$7),"H/2",$I$7),"HLA",$H$7)</f>
-        <v>2+1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="64" t="s">
+        <v>1+1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
+      <c r="E12" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
       <c r="L12" s="18">
         <v>11</v>
       </c>
@@ -1691,19 +1688,19 @@
       </c>
       <c r="N12" s="19" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Sheet2!D22,"H/5",Sheet1!$J$7),"H/2",$I$7),"HLA",$H$7)</f>
-        <v>2+1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="51"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
+        <v>1+1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="55"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
       <c r="L13" s="18">
         <v>12</v>
       </c>
@@ -1713,151 +1710,151 @@
       </c>
       <c r="N13" s="19" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Sheet2!D23,"H/5",Sheet1!$J$7),"H/2",$I$7),"HLA",$H$7)</f>
-        <v>2+1+1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-    </row>
-    <row r="15" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="51"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="L15" s="65" t="s">
+        <v>1+1+1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="55"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="L15" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="L16" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="L16" s="36" t="s">
+      <c r="M16" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="37" t="s">
+      <c r="N16" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="N16" s="37" t="s">
+      <c r="O16" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="O16" s="24" t="s">
-        <v>82</v>
-      </c>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="51"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="L17" s="68"/>
+    <row r="17" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="55"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="L17" s="40"/>
       <c r="M17" s="34"/>
       <c r="N17" s="38"/>
       <c r="O17" s="17"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="L18" s="69"/>
+    <row r="18" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="35"/>
       <c r="N18" s="39"/>
       <c r="O18" s="22"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="51"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="L19" s="68"/>
+    <row r="19" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="55"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="L19" s="40"/>
       <c r="M19" s="34"/>
       <c r="N19" s="38"/>
       <c r="O19" s="17"/>
       <c r="P19" s="12"/>
     </row>
-    <row r="20" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="L20" s="69"/>
+    <row r="20" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="L20" s="41"/>
       <c r="M20" s="35"/>
       <c r="N20" s="39"/>
       <c r="O20" s="22"/>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="51"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="L21" s="70"/>
+    <row r="21" spans="2:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="55"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="31"/>
-      <c r="N21" s="71"/>
+      <c r="N21" s="43"/>
       <c r="O21" s="33"/>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="2:16" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
@@ -1931,14 +1928,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1962,7 +1959,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1973,34 +1970,34 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>8</v>
@@ -2010,18 +2007,18 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>8</v>
@@ -2034,7 +2031,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2045,10 +2042,10 @@
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>9</v>
@@ -2058,31 +2055,31 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -2090,13 +2087,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>9</v>
@@ -2106,7 +2103,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2116,8 +2113,8 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
@@ -2130,7 +2127,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -2143,63 +2140,63 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>4</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
+      <c r="C15" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>6</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>7</v>
       </c>
@@ -2212,72 +2209,72 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>8</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>60</v>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
